--- a/pythonGui/data/予約データ.xlsx
+++ b/pythonGui/data/予約データ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A16743-B9B3-4C1F-B86A-458172A88363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A9C111-0646-4688-8D08-C97CDDB6347E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,7 +595,7 @@
       </c>
       <c r="L1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43849</v>
+        <v>43870</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -634,7 +634,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="1" t="str">
         <f ca="1">TEXT(L3,"yyyy/MM/DD")</f>
-        <v>2020/02/03</v>
+        <v>2020/03/02</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>
@@ -654,11 +654,11 @@
       <c r="I3" s="3"/>
       <c r="L3" s="4">
         <f ca="1">$L$1+RAND()*100</f>
-        <v>43864.905467327902</v>
+        <v>43892.237201353462</v>
       </c>
       <c r="N3" t="str">
         <f ca="1">TEXT(L3,"yyyy/MM/DD")</f>
-        <v>2020/02/03</v>
+        <v>2020/03/02</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -670,7 +670,7 @@
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" ref="C4:C12" ca="1" si="0">TEXT(L4,"yyyy/MM/DD")</f>
-        <v>2020/01/20</v>
+        <v>2020/03/27</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -684,7 +684,7 @@
       <c r="I4" s="3"/>
       <c r="L4" s="4">
         <f t="shared" ref="L4:L12" ca="1" si="1">$L$1+RAND()*100</f>
-        <v>43850.20878618236</v>
+        <v>43917.723560854618</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -696,7 +696,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2020/02/17</v>
+        <v>2020/02/23</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -706,7 +706,7 @@
       <c r="I5" s="3"/>
       <c r="L5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43878.018418518426</v>
+        <v>43884.704168090982</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -716,7 +716,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2020/03/16</v>
+        <v>2020/03/06</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -736,7 +736,7 @@
       <c r="I6" s="3"/>
       <c r="L6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43906.883693591422</v>
+        <v>43896.932519343492</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -746,7 +746,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2020/03/08</v>
+        <v>2020/03/18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -766,7 +766,7 @@
       <c r="I7" s="3"/>
       <c r="L7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43898.316296392375</v>
+        <v>43908.940365891016</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -776,7 +776,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2020/04/12</v>
+        <v>2020/03/25</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
@@ -796,7 +796,7 @@
       <c r="I8" s="3"/>
       <c r="L8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43933.767707102088</v>
+        <v>43915.407978557305</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -806,7 +806,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2020/01/19</v>
+        <v>2020/05/12</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
@@ -826,7 +826,7 @@
       <c r="I9" s="3"/>
       <c r="L9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43849.313709479487</v>
+        <v>43963.023801856696</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -836,7 +836,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2020/02/27</v>
+        <v>2020/03/01</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>15</v>
@@ -856,7 +856,7 @@
       <c r="I10" s="3"/>
       <c r="L10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43888.559955331613</v>
+        <v>43891.28590877408</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -868,7 +868,7 @@
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2020/01/29</v>
+        <v>2020/02/18</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -878,7 +878,7 @@
       <c r="I11" s="3"/>
       <c r="L11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43859.401572868803</v>
+        <v>43879.863948107151</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -890,7 +890,7 @@
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2020/02/07</v>
+        <v>2020/05/13</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -900,7 +900,7 @@
       <c r="I12" s="3"/>
       <c r="L12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>43868.325289707893</v>
+        <v>43964.892645013118</v>
       </c>
     </row>
   </sheetData>
